--- a/biology/Botanique/Arboriculture/Arboriculture.xlsx
+++ b/biology/Botanique/Arboriculture/Arboriculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboriculture désigne l'activité humaine qui consiste à cultiver des arbres.
 La discipline comprend l'étude de la physiologie végétale, de la façon dont les arbres réagissent à leur environnement (pédologie, climatologie) et aux différentes techniques d'entretien.
@@ -514,9 +526,11 @@
           <t>Éléments historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Avec le développement urbain à la fin du XIXe siècle, un besoin d'arbres d'agrément émerge et on voit apparaître les premiers conseils en arboriculture. Dès 1924, l'International Society of Arboriculture aux États-Unis crée la spécialité de « Tree Surgery », la chirurgie arboricole[1]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Avec le développement urbain à la fin du XIXe siècle, un besoin d'arbres d'agrément émerge et on voit apparaître les premiers conseils en arboriculture. Dès 1924, l'International Society of Arboriculture aux États-Unis crée la spécialité de « Tree Surgery », la chirurgie arboricole. »
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux grands types d'arboriculture :
 l'arboriculture fruitière qui demande les compétences nécessaires à l'entretien des arbres fruitiers et à la production de fruits en verger,
